--- a/DOWNLOADS/EDITAIS/U_928285_E_901112025_30-09-2025_08h40m/U_928285_E_901112025_30-09-2025_08h40m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_928285_E_901112025_30-09-2025_08h40m/U_928285_E_901112025_30-09-2025_08h40m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nº</t>
   </si>
@@ -22,6 +22,9 @@
     <t>DESCRICAO</t>
   </si>
   <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
     <t>QTDE</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>Fonte alimentação ininterrupta Fonte Alimentação Ininterrupta Tipo: No-Break, Tensão Entrada: Bivolt AutomáticoV, Tensão Saída: Bivolt 110/220V, Tipo Alarme: Audiovisual, Características Adicionais: Garantia Mínima De 12 Meses, Tipo Onda: Senoidal Pura, Software: Com Software De Gerenciamento Em Português, Autonomia Bateria: 15 Min Em Plena Carga, Capacidade Nominal: 3,2, Características Adicionais 1: 6 Tomadas Padrão Abnt</t>
+  </si>
+  <si>
+    <t>Item 1: 223792/ BR0469170/ Nobreak Senoidal 1000VA Nobreak Senoidal Bivolt 1000VA, ou equivalente, para proteção e autonomia de workstations. Deve entregar forma de onda senoidal pura, idêntico ao fornecido pela rede elétrica. Deve possuir sistema inteligente de estabilização de rede capaz de proteger os itens conectados de distúrbios elétricos. Deve possuir 8 níveis de proteção para garantir a integridade dos equipamentos, protegendo contra sobrecarga e curto-circuito nas tomadas de saída, sobrecarga na entrada de rede, sobreaquecimento no inversor, sub e sobretensão da rede elétrica, variação de frequência, surtos de tensão e descarga total/sobrecarga da bateria. O tempo de atuação do inversor não pode ser superior à 0,5 onda (60Hz). Deve possuir baterias internas que garantam a continuidade da sua operação por pelo menos 15 minutos, tendo em vista uma carga estimada de 450VA, mesmo quando ocorre queda de energia. Deve possuir sistema de Restart automático que possibilite o nobreak reiniciar automaticamente quando a rede elétrica voltar à normalidade e mesmo se a bateria estiver descarregada. Deve possuir pelo menos 06 tomadas de saída de energia. O equipamento deve possuir dimensões máximas de 190 x 160 x 375 (A x L x P), valores em milímetros, já desconsiderando a embalagem. Normas e exigências: Deverá atender todas as Certificações da Norma Brasileira, incluindo a NBR 15014 de 12/2003 que trata dos termos e definições para sistemas de alimentação de potência ininterrupta (nobreaks) on-line, interativo e stand-by, que utilizam bateria como fonte de energia armazenada. Deverá ser disponibilizada 01 unidade para demonstração em caso de dúvida. O equipamento deverá apresentar 01 ano de garantia.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -410,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,31 +447,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1503.97</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>22559.55</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
